--- a/excel_data/world_population.xlsx
+++ b/excel_data/world_population.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\Terminal_optimization\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F111A5CE-D3A9-4A3F-A8ED-5B679ED98F19}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB12493B-BEDA-4FD6-BACF-C4FDDF36A8B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11550" firstSheet="7" activeTab="10" xr2:uid="{80943641-C598-4655-A746-ABA473811383}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11550" activeTab="3" xr2:uid="{80943641-C598-4655-A746-ABA473811383}"/>
   </bookViews>
   <sheets>
     <sheet name="Population vs GDP" sheetId="1" r:id="rId1"/>
@@ -5359,7 +5359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADADF12-7B03-4605-89AF-268E62FDFDE2}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -13849,8 +13849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FD8FEA-28B5-45FA-AA9F-5EED8A3D7CD6}">
   <dimension ref="A1:AC683"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel_data/world_population.xlsx
+++ b/excel_data/world_population.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\Terminal_optimization\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB12493B-BEDA-4FD6-BACF-C4FDDF36A8B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B29314-F64E-4314-B405-F7E3FD2CD09F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11550" activeTab="3" xr2:uid="{80943641-C598-4655-A746-ABA473811383}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11550" activeTab="1" xr2:uid="{80943641-C598-4655-A746-ABA473811383}"/>
   </bookViews>
   <sheets>
     <sheet name="Population vs GDP" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,6 +38,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2344,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D11BEB-E337-43DD-B787-89A560E1CEAE}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6762,11 +6763,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2E340B-2B1B-444F-9822-E274A2974F0D}">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -9616,7 +9620,8 @@
         <v>1194369908</v>
       </c>
       <c r="L68" s="2">
-        <v>1194369908</v>
+        <f>AVERAGE(L69,L67)</f>
+        <v>1209725209</v>
       </c>
       <c r="M68" s="2">
         <v>1194369908</v>
@@ -13849,7 +13854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FD8FEA-28B5-45FA-AA9F-5EED8A3D7CD6}">
   <dimension ref="A1:AC683"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
